--- a/archive/InnovateUK_Funding_Opportunities_WeeklyBreakdown_2026-01-28.xlsx
+++ b/archive/InnovateUK_Funding_Opportunities_WeeklyBreakdown_2026-01-28.xlsx
@@ -483,13 +483,13 @@
         <v>46050</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -965,7 +965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,25 +1016,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -1072,20 +1082,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wednesday 4 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£75,000</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45987</v>
       </c>
     </row>
@@ -1121,20 +1135,24 @@
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Wednesday 4 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="2" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£8,500</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>45987</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>45987</v>
       </c>
     </row>
@@ -1149,7 +1167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,25 +1218,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -1256,20 +1284,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>46001.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£1.0 million</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45966</v>
       </c>
     </row>
@@ -1305,20 +1337,24 @@
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="2" t="n">
+        <v>46001.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£4.0 million</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>45966</v>
       </c>
     </row>
@@ -1354,16 +1390,20 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" s="2" t="n">
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>45966</v>
       </c>
     </row>
@@ -1399,20 +1439,24 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" s="2" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>£750,000</t>
         </is>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="N5" s="2" t="n">
         <v>45966</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>45966</v>
       </c>
     </row>
@@ -1427,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1478,25 +1522,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -1534,20 +1588,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45959</v>
       </c>
     </row>
@@ -1583,20 +1641,24 @@
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="2" t="n">
+        <v>45987.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£3.4 million</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>45959</v>
       </c>
     </row>
@@ -1632,20 +1694,24 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Wednesday 25 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" s="2" t="n">
+        <v>46106.45833333334</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>£3.0 million</t>
         </is>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="N4" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>45959</v>
       </c>
     </row>
@@ -1660,7 +1726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1711,25 +1777,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -1767,20 +1843,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>46001.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£1.0 million</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45952</v>
       </c>
     </row>
@@ -1816,20 +1896,24 @@
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="2" t="n">
+        <v>46001.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£150,000</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>45952</v>
       </c>
     </row>
@@ -1865,20 +1949,24 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Wednesday 10 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" s="2" t="n">
+        <v>46001.45833333334</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="N4" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>45952</v>
       </c>
     </row>
@@ -1914,20 +2002,24 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Wednesday 7 January 2026 11:00am</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" s="2" t="n">
+        <v>46029.45833333334</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="N5" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>45952</v>
       </c>
     </row>
@@ -1963,20 +2055,24 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" s="2" t="n">
+        <v>45987.45833333334</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>£8,500</t>
         </is>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="N6" s="2" t="n">
         <v>45952</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>45952</v>
       </c>
     </row>
@@ -1991,7 +2087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2042,25 +2138,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -2098,20 +2204,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£4.0 million</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45945</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -2147,20 +2257,24 @@
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="2" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£2.0 million</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>45945</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -2196,20 +2310,24 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" s="2" t="n">
+        <v>45987.45833333334</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="N4" s="2" t="n">
         <v>45945</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -2245,20 +2363,24 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" s="2" t="n">
+        <v>45987.45833333334</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="N5" s="2" t="n">
         <v>45945</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -2294,20 +2416,24 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" s="2" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>£500,000</t>
         </is>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="N6" s="2" t="n">
         <v>45945</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -2343,20 +2469,24 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Wednesday 17 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" s="2" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>£4.0 million</t>
         </is>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="N7" s="2" t="n">
         <v>45945</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="O7" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -2392,16 +2522,20 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
       <c r="L8" s="2" t="n">
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" s="2" t="n">
         <v>45945</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -2416,7 +2550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2467,25 +2601,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -2523,20 +2667,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wednesday 26 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>45987.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£250,000</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45938</v>
       </c>
     </row>
@@ -2572,16 +2720,20 @@
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Wednesday 22 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" s="2" t="n">
+        <v>45952.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>45938</v>
       </c>
     </row>
@@ -2596,7 +2748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2647,25 +2799,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -2703,20 +2865,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wednesday 21 January 2026 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>46043.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£600,000</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45931</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45931</v>
       </c>
     </row>
@@ -2731,7 +2897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2782,25 +2948,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -2838,20 +3014,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wednesday 3 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>45994.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£500,000</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45924</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45924</v>
       </c>
     </row>
@@ -2866,7 +3046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2917,25 +3097,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -2973,20 +3163,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>There is no submission deadline</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£20.0 million</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45917</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45917</v>
       </c>
     </row>
@@ -3022,20 +3214,24 @@
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Thursday 4 December 2025 11:00am</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="2" t="n">
+        <v>45995.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£250,000</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>45917</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>45917</v>
       </c>
     </row>
@@ -3071,20 +3267,24 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Monday 3 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" s="2" t="n">
+        <v>45964.45833333334</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>£25,000</t>
         </is>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="N4" s="2" t="n">
         <v>45917</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>45917</v>
       </c>
     </row>
@@ -3120,20 +3320,24 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Wednesday 22 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" s="2" t="n">
+        <v>45952.45833333334</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>£150,000</t>
         </is>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="N5" s="2" t="n">
         <v>45917</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>45917</v>
       </c>
     </row>
@@ -3148,7 +3352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3199,25 +3403,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -3255,20 +3469,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Tuesday 28 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>45958.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£300,000</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45910</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45910</v>
       </c>
     </row>
@@ -3304,20 +3522,24 @@
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="2" t="n">
+        <v>45945.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£40,000</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>45910</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>45910</v>
       </c>
     </row>
@@ -3332,7 +3554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3383,25 +3605,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -3443,20 +3675,26 @@
           <t>02/02/2026</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="2" t="n">
+        <v>46055</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>11/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>46092.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>46050</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>46050</v>
       </c>
     </row>
@@ -3496,20 +3734,132 @@
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>18/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="2" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£7.6 million</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>46050</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TechLocal: Connecting Local Talent to Local Tech Jobs</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2378/overview/ae120ce2-7b72-4cf2-8dde-f78b02d5996d</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-01-28 10:24</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>46050.43333333333</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Wednesday 18 March 2026 11:00am</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>£225,000</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>46050</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TechLocal AI Professional Degree and Traineeship Accelerator</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2375/overview/6431359e-eb5c-4f76-b49d-299948107fbd</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-01-28 10:24</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>46050.43333333333</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Wednesday 18 March 2026 11:00am</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>£300,000</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>46050</v>
+      </c>
+      <c r="O5" s="1" t="n">
         <v>46050</v>
       </c>
     </row>
@@ -3524,7 +3874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3575,25 +3925,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -3631,20 +3991,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>45945.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45903</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -3680,20 +4044,24 @@
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Wednesday 22 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="2" t="n">
+        <v>45952.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>45903</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -3708,7 +4076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3759,25 +4127,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -3815,20 +4193,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>45945.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45896</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45896</v>
       </c>
     </row>
@@ -3864,16 +4246,20 @@
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Wednesday 17 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" s="2" t="n">
+        <v>45917.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" s="2" t="n">
         <v>45896</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>45896</v>
       </c>
     </row>
@@ -3909,20 +4295,24 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Wednesday 5 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" s="2" t="n">
+        <v>45966.45833333334</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>£3.0 million</t>
         </is>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="N4" s="2" t="n">
         <v>45896</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>45896</v>
       </c>
     </row>
@@ -3937,7 +4327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3988,25 +4378,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -4044,20 +4444,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wednesday 10 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>45910.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45889</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45889</v>
       </c>
     </row>
@@ -4072,7 +4476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4123,25 +4527,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -4179,20 +4593,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£8.0 million</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45882</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45882</v>
       </c>
     </row>
@@ -4228,20 +4646,24 @@
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="2" t="n">
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£4.5 million</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>45882</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>45882</v>
       </c>
     </row>
@@ -4277,20 +4699,24 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Wednesday 19 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" s="2" t="n">
+        <v>45980.45833333334</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>£3.5 million</t>
         </is>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="N4" s="2" t="n">
         <v>45882</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>45882</v>
       </c>
     </row>
@@ -4305,7 +4731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4356,25 +4782,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -4412,20 +4848,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wednesday 10 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>45910.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£120,000</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45875</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45875</v>
       </c>
     </row>
@@ -4440,7 +4880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4491,25 +4931,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -4547,20 +4997,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wednesday 3 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>45903.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45861</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45861</v>
       </c>
     </row>
@@ -4575,7 +5029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4626,25 +5080,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -4682,20 +5146,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wednesday 27 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>45896.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£300,000</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45847</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -4731,20 +5199,24 @@
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Wednesday 27 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="2" t="n">
+        <v>45896.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£300,000</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>45847</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -4780,20 +5252,24 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Wednesday 27 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" s="2" t="n">
+        <v>45896.45833333334</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>£300,000</t>
         </is>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="N4" s="2" t="n">
         <v>45847</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -4829,20 +5305,24 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Thursday 17 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" s="2" t="n">
+        <v>45855.45833333334</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>£200,000</t>
         </is>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="N5" s="2" t="n">
         <v>45847</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -4878,20 +5358,24 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Wednesday 3 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" s="2" t="n">
+        <v>45903.45833333334</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>£750,000</t>
         </is>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="N6" s="2" t="n">
         <v>45847</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -4927,20 +5411,24 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Wednesday 1 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" s="2" t="n">
+        <v>45931.45833333334</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>£1.5 million</t>
         </is>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="N7" s="2" t="n">
         <v>45847</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="O7" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -4976,20 +5464,24 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Wednesday 1 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" s="2" t="n">
+        <v>45931.45833333334</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>£25.0 million</t>
         </is>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="N8" s="2" t="n">
         <v>45847</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>45847</v>
       </c>
     </row>
@@ -5004,7 +5496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5055,25 +5547,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -5111,20 +5613,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wednesday 27 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>45896.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45840</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45840</v>
       </c>
     </row>
@@ -5160,20 +5666,24 @@
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Wednesday 6 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="2" t="n">
+        <v>45875.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£50,000</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>45840</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>45840</v>
       </c>
     </row>
@@ -5209,16 +5719,20 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Wednesday 23 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" s="2" t="n">
+        <v>45861.45833333334</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" s="2" t="n">
         <v>45840</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>45840</v>
       </c>
     </row>
@@ -5233,7 +5747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5284,25 +5798,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -5340,20 +5864,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wednesday 20 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>45889.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£500,000</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45833</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45833</v>
       </c>
     </row>
@@ -5389,20 +5917,24 @@
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Wednesday 20 August 2025 11:00am</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="2" t="n">
+        <v>45889.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>45833</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>45833</v>
       </c>
     </row>
@@ -5417,7 +5949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5468,25 +6000,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -5524,20 +6066,24 @@
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Wednesday 5 November 2025 11:00am</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>45966.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£3.0 million</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -5573,20 +6119,24 @@
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Thursday 24 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="2" t="n">
+        <v>45862.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -5622,20 +6172,24 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" s="2" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="N4" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -5671,20 +6225,24 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" s="2" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>£50,000</t>
         </is>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="N5" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -5720,20 +6278,24 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Thursday 4 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" s="2" t="n">
+        <v>45904.45833333334</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>£250,000</t>
         </is>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="N6" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -5769,16 +6331,20 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Wednesday 18 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" s="2" t="n">
+        <v>45826.45833333334</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="O7" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -5814,20 +6380,24 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" s="2" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>£3.0 million</t>
         </is>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="N8" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -5863,20 +6433,24 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" s="2" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>£150,000</t>
         </is>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="N9" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="O9" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -5912,20 +6486,24 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" s="2" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>£150,000</t>
         </is>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="N10" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="O10" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -5961,20 +6539,24 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Wednesday 18 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" s="2" t="n">
+        <v>45826.45833333334</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>£250,000</t>
         </is>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="N11" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="O11" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -6010,20 +6592,24 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" s="2" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>£1.5 million</t>
         </is>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="N12" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="O12" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -6059,20 +6645,24 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" s="2" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="N13" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M13" s="1" t="n">
+      <c r="O13" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -6108,20 +6698,24 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" s="2" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="N14" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="O14" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -6157,20 +6751,24 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Wednesday 18 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" s="2" t="n">
+        <v>45826.45833333334</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>£3.0 million</t>
         </is>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="N15" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="O15" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -6206,20 +6804,24 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Wednesday 18 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" s="2" t="n">
+        <v>45826.45833333334</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L16" s="2" t="n">
+      <c r="N16" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M16" s="1" t="n">
+      <c r="O16" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -6255,20 +6857,24 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" s="2" t="n">
+        <v>45945.45833333334</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>£500,000</t>
         </is>
       </c>
-      <c r="L17" s="2" t="n">
+      <c r="N17" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M17" s="1" t="n">
+      <c r="O17" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -6304,20 +6910,24 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" s="2" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="N18" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M18" s="1" t="n">
+      <c r="O18" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -6353,20 +6963,24 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" s="2" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>£2.0 million</t>
         </is>
       </c>
-      <c r="L19" s="2" t="n">
+      <c r="N19" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M19" s="1" t="n">
+      <c r="O19" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -6402,20 +7016,24 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" s="2" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>£2.5 million</t>
         </is>
       </c>
-      <c r="L20" s="2" t="n">
+      <c r="N20" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M20" s="1" t="n">
+      <c r="O20" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -6451,20 +7069,24 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" s="2" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>£2.5 million</t>
         </is>
       </c>
-      <c r="L21" s="2" t="n">
+      <c r="N21" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M21" s="1" t="n">
+      <c r="O21" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -6500,20 +7122,24 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Wednesday 2 July 2025 11:00am</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" s="2" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>£2.0 million</t>
         </is>
       </c>
-      <c r="L22" s="2" t="n">
+      <c r="N22" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M22" s="1" t="n">
+      <c r="O22" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -6549,20 +7175,24 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Wednesday 25 June 2025 11:00am</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" s="2" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L23" s="2" t="n">
+      <c r="N23" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M23" s="1" t="n">
+      <c r="O23" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -6598,16 +7228,18 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Thursday 27 November 2025 4:00pm</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" s="2" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M24" s="1" t="n">
+      <c r="O24" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -6643,16 +7275,18 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Thursday 27 November 2025 4:00pm</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" s="2" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M25" s="1" t="n">
+      <c r="O25" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -6688,20 +7322,24 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Wednesday 17 September 2025 11:00am</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" s="2" t="n">
+        <v>45917.45833333334</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>£8,500</t>
         </is>
       </c>
-      <c r="L26" s="2" t="n">
+      <c r="N26" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="M26" s="1" t="n">
+      <c r="O26" s="1" t="n">
         <v>45819</v>
       </c>
     </row>
@@ -6716,7 +7354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6767,25 +7405,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -6825,10 +7473,12 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" s="2" t="n">
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" s="2" t="n">
         <v>46043</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -6868,16 +7518,22 @@
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>26/11/2027                              16:00</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" s="2" t="n">
+        <v>46717.66666666666</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" s="2" t="n">
         <v>46043</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -6915,10 +7571,12 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" s="2" t="n">
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" s="2" t="n">
         <v>46043</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -6956,10 +7614,12 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" s="2" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" s="2" t="n">
         <v>46043</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -6999,16 +7659,22 @@
           <t>20/02/2026</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>15/04/2026                              16:00</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
       <c r="L6" s="2" t="n">
+        <v>46127.66666666666</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" s="2" t="n">
         <v>46043</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -7046,10 +7712,12 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" s="2" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" s="2" t="n">
         <v>46043</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="O7" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -7089,16 +7757,22 @@
           <t>01/01/2026</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="2" t="n">
+        <v>46023</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>25/11/2026                              16:00</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
       <c r="L8" s="2" t="n">
+        <v>46351.66666666666</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" s="2" t="n">
         <v>46043</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -7138,16 +7812,22 @@
           <t>01/01/2026</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="2" t="n">
+        <v>46023</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>26/02/2026                              16:00</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
       <c r="L9" s="2" t="n">
+        <v>46079.66666666666</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" s="2" t="n">
         <v>46043</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="O9" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -7183,20 +7863,24 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Wednesday 11 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" s="2" t="n">
+        <v>46092.45833333334</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="N10" s="2" t="n">
         <v>46043</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="O10" s="1" t="n">
         <v>46043</v>
       </c>
     </row>
@@ -7211,7 +7895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7262,25 +7946,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -7322,16 +8016,22 @@
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>22/09/2027                              16:00</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" s="2" t="n">
+        <v>46652.66666666666</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" s="2" t="n">
         <v>46036</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -7371,16 +8071,22 @@
           <t>06/05/2026</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="2" t="n">
+        <v>46148</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>04/11/2027                              00:00</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" s="2" t="n">
+        <v>46695</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" s="2" t="n">
         <v>46036</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -7420,16 +8126,22 @@
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>01/12/2027                              16:00</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" s="2" t="n">
+        <v>46722.66666666666</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" s="2" t="n">
         <v>46036</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -7469,16 +8181,22 @@
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>07/10/2027                              16:00</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
       <c r="L5" s="2" t="n">
+        <v>46667.66666666666</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" s="2" t="n">
         <v>46036</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -7516,10 +8234,12 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" s="2" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" s="2" t="n">
         <v>46036</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -7559,16 +8279,22 @@
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>21/09/2027                              16:00</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" s="2" t="n">
+        <v>46651.66666666666</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" s="2" t="n">
         <v>46036</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="O7" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -7608,16 +8334,22 @@
           <t>04/02/2026</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>21/09/2027                              16:00</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
       <c r="L8" s="2" t="n">
+        <v>46651.66666666666</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" s="2" t="n">
         <v>46036</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -7657,16 +8389,22 @@
           <t>10/02/2026</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>21/09/2027                              00:00</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
       <c r="L9" s="2" t="n">
+        <v>46651</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" s="2" t="n">
         <v>46036</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="O9" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -7706,20 +8444,26 @@
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="2" t="n">
+        <v>46041</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>11/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" s="2" t="n">
+        <v>46064.45833333334</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>£800,000</t>
         </is>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="N10" s="2" t="n">
         <v>46036</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="O10" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -7759,16 +8503,22 @@
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="2" t="n">
+        <v>46041</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>09/02/2026                              23:59</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
       <c r="L11" s="2" t="n">
+        <v>46062.99930555555</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" s="2" t="n">
         <v>46036</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="O11" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -7806,10 +8556,12 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" s="2" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" s="2" t="n">
         <v>46036</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="O12" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -7849,20 +8601,26 @@
           <t>26/01/2026</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" s="2" t="n">
+        <v>46048</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>25/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" s="2" t="n">
+        <v>46078.45833333334</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>£150,000</t>
         </is>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="N13" s="2" t="n">
         <v>46036</v>
       </c>
-      <c r="M13" s="1" t="n">
+      <c r="O13" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -7898,20 +8656,24 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Wednesday 11 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" s="2" t="n">
+        <v>46064.45833333334</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>£32,000</t>
         </is>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="N14" s="2" t="n">
         <v>46036</v>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="O14" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -7947,20 +8709,24 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Wednesday 25 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" s="2" t="n">
+        <v>46078.45833333334</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>£150,000</t>
         </is>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="N15" s="2" t="n">
         <v>46036</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="O15" s="1" t="n">
         <v>46036</v>
       </c>
     </row>
@@ -7975,7 +8741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8026,25 +8792,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -8086,20 +8862,26 @@
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>25/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>46106.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£7.0 million</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>46029</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -8139,16 +8921,22 @@
           <t>06/01/2026</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>15/02/2026                              23:00</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" s="2" t="n">
+        <v>46068.95833333334</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" s="2" t="n">
         <v>46029</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -8188,20 +8976,26 @@
           <t>04/12/2025</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>19/01/2026                              23:59</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" s="2" t="n">
+        <v>46041.99930555555</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>£25,000</t>
         </is>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="N4" s="2" t="n">
         <v>46029</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -8241,20 +9035,26 @@
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>18/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" s="2" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>£33.0 million</t>
         </is>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="N5" s="2" t="n">
         <v>46029</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -8294,20 +9094,26 @@
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>11/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" s="2" t="n">
+        <v>46092.45833333334</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>£33.0 million</t>
         </is>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="N6" s="2" t="n">
         <v>46029</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -8347,16 +9153,22 @@
           <t>07/01/2026</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>12/02/2026                              17:00</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" s="2" t="n">
+        <v>46065.70833333334</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" s="2" t="n">
         <v>46029</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="O7" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -8394,10 +9206,12 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" s="2" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" s="2" t="n">
         <v>46029</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -8435,10 +9249,12 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" s="2" t="n">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" s="2" t="n">
         <v>46029</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="O9" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -8478,16 +9294,22 @@
           <t>08/01/2026</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>17/02/2026                              17:00</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
       <c r="L10" s="2" t="n">
+        <v>46070.70833333334</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" s="2" t="n">
         <v>46029</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="O10" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -8525,10 +9347,12 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" s="2" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" s="2" t="n">
         <v>46029</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="O11" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -8566,10 +9390,12 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" s="2" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" s="2" t="n">
         <v>46029</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="O12" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -8609,20 +9435,26 @@
           <t>08/01/2026</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>04/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" s="2" t="n">
+        <v>46085.45833333334</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="N13" s="2" t="n">
         <v>46029</v>
       </c>
-      <c r="M13" s="1" t="n">
+      <c r="O13" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -8662,16 +9494,22 @@
           <t>05/01/2026</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>02/09/2027                              16:00</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
       <c r="L14" s="2" t="n">
+        <v>46632.66666666666</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" s="2" t="n">
         <v>46029</v>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="O14" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -8711,16 +9549,22 @@
           <t>19/01/2026</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" s="2" t="n">
+        <v>46041</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>04/03/2026                              12:00</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
       <c r="L15" s="2" t="n">
+        <v>46085.5</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" s="2" t="n">
         <v>46029</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="O15" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -8760,16 +9604,22 @@
           <t>12/01/2026</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>27/02/2026                              17:00</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
       <c r="L16" s="2" t="n">
+        <v>46080.70833333334</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" s="2" t="n">
         <v>46029</v>
       </c>
-      <c r="M16" s="1" t="n">
+      <c r="O16" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -8805,20 +9655,24 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Wednesday 4 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" s="2" t="n">
+        <v>46085.45833333334</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L17" s="2" t="n">
+      <c r="N17" s="2" t="n">
         <v>46029</v>
       </c>
-      <c r="M17" s="1" t="n">
+      <c r="O17" s="1" t="n">
         <v>46029</v>
       </c>
     </row>
@@ -8833,7 +9687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8884,25 +9738,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -8944,16 +9808,22 @@
           <t>21/01/2026</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="2" t="n">
+        <v>46043</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>21/04/2026                              16:00</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" s="2" t="n">
+        <v>46133.66666666666</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" s="2" t="n">
         <v>46022</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -8989,20 +9859,24 @@
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Wednesday 25 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="2" t="n">
+        <v>46106.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£1.5 million</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>46022</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -9038,20 +9912,24 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Wednesday 25 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" s="2" t="n">
+        <v>46106.45833333334</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="N4" s="2" t="n">
         <v>46022</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -9087,20 +9965,24 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Wednesday 25 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" s="2" t="n">
+        <v>46106.45833333334</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>£300,000</t>
         </is>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="N5" s="2" t="n">
         <v>46022</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -9136,20 +10018,24 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Wednesday 11 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" s="2" t="n">
+        <v>46092.45833333334</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>£1.5 million</t>
         </is>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="N6" s="2" t="n">
         <v>46022</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -9185,20 +10071,24 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Wednesday 18 March 2026 11:00am</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" s="2" t="n">
+        <v>46099.45833333334</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>£25.0 million</t>
         </is>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="N7" s="2" t="n">
         <v>46022</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="O7" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -9213,7 +10103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9264,25 +10154,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -9324,16 +10224,22 @@
           <t>16/01/2026</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="2" t="n">
+        <v>46038</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>19/03/2026                              14:00</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" s="2" t="n">
+        <v>46100.58333333334</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" s="2" t="n">
         <v>46015</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>46015</v>
       </c>
     </row>
@@ -9348,7 +10254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9399,25 +10305,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -9459,20 +10375,26 @@
           <t>16/12/2025</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>18/01/2026                              18:00</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>46040.75</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£1,000</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>46008</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -9512,20 +10434,26 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>19/01/2026                              00:00</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="2" t="n">
+        <v>46041</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£50.0 million</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>46008</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -9565,16 +10493,22 @@
           <t>18/12/2025</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>19/01/2026                              00:00</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" s="2" t="n">
+        <v>46041</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" s="2" t="n">
         <v>46008</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -9614,20 +10548,26 @@
           <t>15/01/2026</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="2" t="n">
+        <v>46037</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>25/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" s="2" t="n">
+        <v>46078.45833333334</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="N5" s="2" t="n">
         <v>46008</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -9667,20 +10607,26 @@
           <t>18/12/2025</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>09/02/2026                              23:59</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" s="2" t="n">
+        <v>46062.99930555555</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="N6" s="2" t="n">
         <v>46008</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -9716,20 +10662,24 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Wednesday 25 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" s="2" t="n">
+        <v>46078.45833333334</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="N7" s="2" t="n">
         <v>46008</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="O7" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -9765,20 +10715,24 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Thursday 7 May 2026 11:00am</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" s="2" t="n">
+        <v>46149.45833333334</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>£250,000</t>
         </is>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="N8" s="2" t="n">
         <v>46008</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>46008</v>
       </c>
     </row>
@@ -9793,7 +10747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9844,25 +10798,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Opening Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Closing Date</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Max Grant</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Week commencing (Wed)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Week commencing (Wed) (date)</t>
         </is>
@@ -9904,20 +10868,26 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>10/02/2026                              12:00</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" s="2" t="n">
+        <v>46063.5</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>£1.0 million</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M2" s="1" t="n">
+      <c r="N2" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -9957,20 +10927,26 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>22/01/2026                              14:00</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" s="2" t="n">
+        <v>46044.58333333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>£8</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M3" s="1" t="n">
+      <c r="N3" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O3" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10010,20 +10986,26 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>06/02/2026                              23:59</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" s="2" t="n">
+        <v>46059.99930555555</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="L4" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M4" s="1" t="n">
+      <c r="N4" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O4" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10063,20 +11045,26 @@
           <t>15/12/2025</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="2" t="n">
+        <v>46006</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>29/01/2026                              17:00</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" s="2" t="n">
+        <v>46051.70833333334</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>£60,000</t>
         </is>
       </c>
-      <c r="L5" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M5" s="1" t="n">
+      <c r="N5" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O5" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10116,20 +11104,26 @@
           <t>01/12/2025</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>04/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" s="2" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>£8,500</t>
         </is>
       </c>
-      <c r="L6" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M6" s="1" t="n">
+      <c r="N6" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O6" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10169,20 +11163,26 @@
           <t>20/11/2025</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>02/02/2026                              14:00</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" s="2" t="n">
+        <v>46055.58333333334</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>£500,000</t>
         </is>
       </c>
-      <c r="L7" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M7" s="1" t="n">
+      <c r="N7" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O7" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10222,20 +11222,26 @@
           <t>02/12/2025</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="2" t="n">
+        <v>45993</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>02/01/2026                              23:59</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" s="2" t="n">
+        <v>46024.99930555555</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L8" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M8" s="1" t="n">
+      <c r="N8" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O8" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10275,20 +11281,26 @@
           <t>20/11/2025</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>17/12/2025                              23:59</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" s="2" t="n">
+        <v>46008.99930555555</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="L9" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M9" s="1" t="n">
+      <c r="N9" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O9" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10328,20 +11340,26 @@
           <t>01/12/2025</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>15/01/2026                              23:59</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" s="2" t="n">
+        <v>46037.99930555555</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>£200,000</t>
         </is>
       </c>
-      <c r="L10" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M10" s="1" t="n">
+      <c r="N10" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O10" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10381,20 +11399,26 @@
           <t>10/12/2025</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>03/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" s="2" t="n">
+        <v>46056.45833333334</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>£100.0 million</t>
         </is>
       </c>
-      <c r="L11" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M11" s="1" t="n">
+      <c r="N11" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O11" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10434,20 +11458,26 @@
           <t>04/12/2025</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>05/01/2026                              23:59</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" s="2" t="n">
+        <v>46027.99930555555</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>£25,000</t>
         </is>
       </c>
-      <c r="L12" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M12" s="1" t="n">
+      <c r="N12" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O12" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10487,20 +11517,26 @@
           <t>26/11/2025</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>04/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" s="2" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>£315,000</t>
         </is>
       </c>
-      <c r="L13" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M13" s="1" t="n">
+      <c r="N13" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O13" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10540,16 +11576,22 @@
           <t>10/11/2025</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>19/01/2026                              16:00</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
       <c r="L14" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M14" s="1" t="n">
+        <v>46041.66666666666</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O14" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10589,20 +11631,26 @@
           <t>14/11/2025</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>11/01/2026                              23:59</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" s="2" t="n">
+        <v>46033.99930555555</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>£2,000</t>
         </is>
       </c>
-      <c r="L15" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M15" s="1" t="n">
+      <c r="N15" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O15" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10642,20 +11690,26 @@
           <t>18/11/2025</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>02/02/2026                              12:00</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" s="2" t="n">
+        <v>46055.5</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>£1.1 million</t>
         </is>
       </c>
-      <c r="L16" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M16" s="1" t="n">
+      <c r="N16" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O16" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10695,20 +11749,26 @@
           <t>12/11/2025</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>02/01/2026                              17:00</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" s="2" t="n">
+        <v>46024.70833333334</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>£3</t>
         </is>
       </c>
-      <c r="L17" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M17" s="1" t="n">
+      <c r="N17" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O17" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10748,20 +11808,26 @@
           <t>10/11/2025</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>17/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" s="2" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L18" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M18" s="1" t="n">
+      <c r="N18" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O18" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10801,16 +11867,22 @@
           <t>10/11/2025</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>19/12/2025                              23:59</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
       <c r="L19" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M19" s="1" t="n">
+        <v>46010.99930555555</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O19" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10850,20 +11922,26 @@
           <t>10/11/2025</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J20" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>11/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" s="2" t="n">
+        <v>46002.45833333334</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>£25.0 million</t>
         </is>
       </c>
-      <c r="L20" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M20" s="1" t="n">
+      <c r="N20" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O20" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10903,20 +11981,26 @@
           <t>10/11/2025</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>11/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" s="2" t="n">
+        <v>46002.45833333334</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>£25.0 million</t>
         </is>
       </c>
-      <c r="L21" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M21" s="1" t="n">
+      <c r="N21" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O21" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -10956,20 +12040,26 @@
           <t>03/11/2025</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>25/03/2026                              11:00</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" s="2" t="n">
+        <v>46106.45833333334</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>£10.0 million</t>
         </is>
       </c>
-      <c r="L22" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M22" s="1" t="n">
+      <c r="N22" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O22" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11009,16 +12099,22 @@
           <t>31/10/2025</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>31/12/2025                              23:59</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
       <c r="L23" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M23" s="1" t="n">
+        <v>46022.99930555555</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O23" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11058,20 +12154,26 @@
           <t>03/11/2025</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>17/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" s="2" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>£2.0 million</t>
         </is>
       </c>
-      <c r="L24" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M24" s="1" t="n">
+      <c r="N24" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O24" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11111,16 +12213,22 @@
           <t>31/10/2025</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>31/12/2025                              23:59</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
       <c r="L25" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M25" s="1" t="n">
+        <v>46022.99930555555</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O25" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11160,20 +12268,26 @@
           <t>03/11/2025</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J26" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>15/12/2025                              23:59</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" s="2" t="n">
+        <v>46006.99930555555</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L26" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M26" s="1" t="n">
+      <c r="N26" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O26" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11213,20 +12327,26 @@
           <t>22/10/2025</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J27" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>11/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" s="2" t="n">
+        <v>46002.45833333334</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>£3.5 million</t>
         </is>
       </c>
-      <c r="L27" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M27" s="1" t="n">
+      <c r="N27" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O27" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11266,20 +12386,26 @@
           <t>23/10/2025</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J28" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>07/01/2026                              11:00</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" s="2" t="n">
+        <v>46029.45833333334</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>£5.0 million</t>
         </is>
       </c>
-      <c r="L28" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M28" s="1" t="n">
+      <c r="N28" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O28" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11319,20 +12445,26 @@
           <t>22/10/2025</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J29" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>11/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" s="2" t="n">
+        <v>46002.45833333334</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>£15.5 million</t>
         </is>
       </c>
-      <c r="L29" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M29" s="1" t="n">
+      <c r="N29" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O29" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11372,20 +12504,26 @@
           <t>22/10/2025</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J30" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>11/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" s="2" t="n">
+        <v>46002.45833333334</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>£15.5 million</t>
         </is>
       </c>
-      <c r="L30" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M30" s="1" t="n">
+      <c r="N30" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O30" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11425,20 +12563,26 @@
           <t>23/10/2025</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J31" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>17/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" s="2" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>£20.0 million</t>
         </is>
       </c>
-      <c r="L31" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M31" s="1" t="n">
+      <c r="N31" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O31" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11478,20 +12622,26 @@
           <t>23/10/2025</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>17/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" s="2" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>£20.0 million</t>
         </is>
       </c>
-      <c r="L32" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M32" s="1" t="n">
+      <c r="N32" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O32" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11531,20 +12681,26 @@
           <t>20/10/2025</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J33" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>17/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" s="2" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>£15.0 million</t>
         </is>
       </c>
-      <c r="L33" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M33" s="1" t="n">
+      <c r="N33" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O33" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11584,20 +12740,26 @@
           <t>20/10/2025</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J34" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>17/12/2025                              11:00</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" s="2" t="n">
+        <v>46008.45833333334</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>£20.0 million</t>
         </is>
       </c>
-      <c r="L34" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M34" s="1" t="n">
+      <c r="N34" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O34" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11637,20 +12799,26 @@
           <t>13/10/2025</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J35" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>11/12/2025                              23:59</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" s="2" t="n">
+        <v>46002.99930555555</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>£2,500</t>
         </is>
       </c>
-      <c r="L35" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M35" s="1" t="n">
+      <c r="N35" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O35" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11690,20 +12858,26 @@
           <t>07/10/2025</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J36" s="2" t="n">
+        <v>45937</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>15/01/2026                              17:00</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" s="2" t="n">
+        <v>46037.70833333334</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>£55.0 million</t>
         </is>
       </c>
-      <c r="L36" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M36" s="1" t="n">
+      <c r="N36" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O36" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11743,20 +12917,26 @@
           <t>13/10/2025</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J37" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>21/01/2026                              11:00</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" s="2" t="n">
+        <v>46043.45833333334</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>£2.0 million</t>
         </is>
       </c>
-      <c r="L37" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M37" s="1" t="n">
+      <c r="N37" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O37" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11793,15 +12973,17 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L38" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M38" s="1" t="n">
+      <c r="N38" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O38" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11838,15 +13020,17 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
         <is>
           <t>£150.0 million</t>
         </is>
       </c>
-      <c r="L39" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M39" s="1" t="n">
+      <c r="N39" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O39" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11884,10 +13068,12 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M40" s="1" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O40" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11925,10 +13111,12 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M41" s="1" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O41" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -11965,15 +13153,17 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
         <is>
           <t>£750</t>
         </is>
       </c>
-      <c r="L42" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M42" s="1" t="n">
+      <c r="N42" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O42" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12010,15 +13200,17 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
         <is>
           <t>£315,000</t>
         </is>
       </c>
-      <c r="L43" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M43" s="1" t="n">
+      <c r="N43" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O43" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12056,10 +13248,12 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M44" s="1" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O44" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12099,16 +13293,22 @@
           <t>06/05/2025</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J45" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>20/01/2026                              16:00</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
       <c r="L45" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M45" s="1" t="n">
+        <v>46042.66666666666</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O45" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12148,16 +13348,22 @@
           <t>06/05/2025</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>20/01/2026                              16:00</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
       <c r="L46" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M46" s="1" t="n">
+        <v>46042.66666666666</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O46" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12197,16 +13403,22 @@
           <t>03/05/2025</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J47" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>17/02/2026                              16:00</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
       <c r="L47" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M47" s="1" t="n">
+        <v>46070.66666666666</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O47" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12243,15 +13455,17 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
         <is>
           <t>£1.0 million</t>
         </is>
       </c>
-      <c r="L48" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M48" s="1" t="n">
+      <c r="N48" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O48" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12289,10 +13503,12 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M49" s="1" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O49" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12330,10 +13546,12 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M50" s="1" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O50" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12371,10 +13589,12 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M51" s="1" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O51" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12411,15 +13631,17 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
         <is>
           <t>£520.0 million</t>
         </is>
       </c>
-      <c r="L52" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M52" s="1" t="n">
+      <c r="N52" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O52" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12456,15 +13678,17 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
         <is>
           <t>£150.0 million</t>
         </is>
       </c>
-      <c r="L53" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M53" s="1" t="n">
+      <c r="N53" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O53" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12501,15 +13725,17 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
         <is>
           <t>£200.0 million</t>
         </is>
       </c>
-      <c r="L54" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M54" s="1" t="n">
+      <c r="N54" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O54" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12546,15 +13772,17 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
         <is>
           <t>£400.0 million</t>
         </is>
       </c>
-      <c r="L55" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M55" s="1" t="n">
+      <c r="N55" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O55" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12591,15 +13819,17 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
         <is>
           <t>£660.0 million</t>
         </is>
       </c>
-      <c r="L56" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M56" s="1" t="n">
+      <c r="N56" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O56" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12636,15 +13866,17 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="L57" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M57" s="1" t="n">
+      <c r="N57" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O57" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12681,15 +13913,17 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
         <is>
           <t>£35,000</t>
         </is>
       </c>
-      <c r="L58" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M58" s="1" t="n">
+      <c r="N58" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O58" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12727,10 +13961,12 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M59" s="1" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O59" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12767,15 +14003,17 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
         <is>
           <t>£130.0 million</t>
         </is>
       </c>
-      <c r="L60" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M60" s="1" t="n">
+      <c r="N60" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O60" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12812,15 +14050,17 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
         <is>
           <t>£70.0 million</t>
         </is>
       </c>
-      <c r="L61" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M61" s="1" t="n">
+      <c r="N61" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O61" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12857,15 +14097,17 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
         <is>
           <t>£1.0 million</t>
         </is>
       </c>
-      <c r="L62" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M62" s="1" t="n">
+      <c r="N62" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O62" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12902,15 +14144,17 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
         <is>
           <t>£500</t>
         </is>
       </c>
-      <c r="L63" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M63" s="1" t="n">
+      <c r="N63" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O63" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12947,15 +14191,17 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L64" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M64" s="1" t="n">
+      <c r="N64" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O64" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -12993,10 +14239,12 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M65" s="1" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O65" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -13034,10 +14282,12 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M66" s="1" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O66" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -13075,10 +14325,12 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M67" s="1" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O67" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -13116,10 +14368,12 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M68" s="1" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O68" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -13157,10 +14411,12 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M69" s="1" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O69" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -13198,10 +14454,12 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M70" s="1" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O70" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -13239,10 +14497,12 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M71" s="1" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O71" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -13280,10 +14540,12 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M72" s="1" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O72" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -13321,10 +14583,12 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M73" s="1" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O73" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -13362,10 +14626,12 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M74" s="1" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O74" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -13403,10 +14669,12 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M75" s="1" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O75" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -13444,10 +14712,12 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M76" s="1" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O76" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -13484,15 +14754,17 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
         <is>
           <t>£500</t>
         </is>
       </c>
-      <c r="L77" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M77" s="1" t="n">
+      <c r="N77" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O77" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -13532,20 +14804,26 @@
           <t>11/12/2025</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="J78" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>04/02/2026                              11:00</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="L78" s="2" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>£3.5 million</t>
         </is>
       </c>
-      <c r="L78" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M78" s="1" t="n">
+      <c r="N78" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O78" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -13581,20 +14859,24 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
         <is>
           <t>Tuesday 3 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="L79" s="2" t="n">
+        <v>46056.45833333334</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>£2.0 million</t>
         </is>
       </c>
-      <c r="L79" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M79" s="1" t="n">
+      <c r="N79" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O79" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
@@ -13630,20 +14912,24 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
         <is>
           <t>Wednesday 4 February 2026 11:00am</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="L80" s="2" t="n">
+        <v>46057.45833333334</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>£100,000</t>
         </is>
       </c>
-      <c r="L80" s="2" t="n">
-        <v>46001</v>
-      </c>
-      <c r="M80" s="1" t="n">
+      <c r="N80" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="O80" s="1" t="n">
         <v>46001</v>
       </c>
     </row>
